--- a/RadioVSOptical_pos/Diference_CHANGES_NED_POS.xlsx
+++ b/RadioVSOptical_pos/Diference_CHANGES_NED_POS.xlsx
@@ -31,7 +31,7 @@
     <t>DECNED</t>
   </si>
   <si>
-    <t>UNCOPT</t>
+    <t>UNCNED</t>
   </si>
   <si>
     <t>Separation</t>
